--- a/data/income_statement/3digits/total/141_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/141_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>141-Manufacture of wearing apparel, except fur apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>141-Manufacture of wearing apparel, except fur apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>24133311.12737</v>
@@ -956,37 +862,42 @@
         <v>27626590.11365</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>33975666.45377</v>
+        <v>34052721.57257</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>36328222.06916</v>
+        <v>36445423.43219</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>39659965.40880001</v>
+        <v>40010264.36308999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>47647197.40622</v>
+        <v>48312035.44336</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>53800850.18308999</v>
+        <v>55466089.31899</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>60303427.22317</v>
+        <v>60544601.70493001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>74166428.90261</v>
+        <v>74166428.90260999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>98842221.56830001</v>
+        <v>99068056.27479999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>116856342.45229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>118618331.48244</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>133225922.087</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>13767042.40058</v>
@@ -995,37 +906,42 @@
         <v>16208767.969</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>20410007.55902</v>
+        <v>20486429.30397</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>22212906.08728</v>
+        <v>22329841.45387</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>24250821.16054</v>
+        <v>24451683.39341</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28841562.3284</v>
+        <v>29185211.85236</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>33275742.1963</v>
+        <v>34030925.68522</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>37642677.35787</v>
+        <v>37744805.44675</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>46514885.01449</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>59727769.62413</v>
+        <v>59918039.49188001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>73200858.58589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>74648742.36528</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>82079082.09199999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>10052581.33321</v>
@@ -1040,31 +956,36 @@
         <v>13652236.08128</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>14887917.33563</v>
+        <v>15036375.4898</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>18235283.83614</v>
+        <v>18549700.91229</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>19840063.97185</v>
+        <v>20714492.64314</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>21753005.91316</v>
+        <v>21890251.13189</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>26500627.23183</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>37520812.49297</v>
+        <v>37554446.65717</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>41596106.26039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>41889786.85954</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>48785444.282</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>313687.39358</v>
@@ -1073,76 +994,86 @@
         <v>369396.86493</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>501184.01604</v>
+        <v>501817.3898899999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>463079.9006000001</v>
+        <v>463345.89704</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>521226.91263</v>
+        <v>522205.47988</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>570351.24168</v>
+        <v>577122.67871</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>685044.01494</v>
+        <v>720670.99063</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>907743.95214</v>
+        <v>909545.1262899999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1150916.65629</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1593639.4512</v>
+        <v>1595570.12575</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2059377.60601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2079802.25762</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2361395.713</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>549612.02836</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>604871.1880799999</v>
+        <v>604871.18808</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>769130.01255</v>
+        <v>770350.1641599999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>794621.85731</v>
+        <v>800642.0088299999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>822243.5905500001</v>
+        <v>834899.77549</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1189791.796</v>
+        <v>1217729.5873</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1318720.57232</v>
+        <v>1362277.64703</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1873692.55449</v>
+        <v>1875577.99928</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2386487.43482</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3620112.15535</v>
+        <v>3621055.87753</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3923484.78179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3964684.34657</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5124319.821</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>307061.52738</v>
@@ -1151,37 +1082,42 @@
         <v>332370.8408</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>462636.58486</v>
+        <v>463856.7364699999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>461313.93035</v>
+        <v>467334.08187</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>490331.0814500001</v>
+        <v>501754.9002100001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>674019.4314599999</v>
+        <v>692097.85121</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>760686.99683</v>
+        <v>791460.92107</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1268575.32477</v>
+        <v>1269297.0983</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1712499.62526</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2328651.89844</v>
+        <v>2329458.06334</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2597499.7692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2632819.26453</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3432268.546</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>131284.74279</v>
@@ -1196,31 +1132,36 @@
         <v>210985.44394</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>219689.97143</v>
+        <v>219840.09351</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>358440.9966599999</v>
+        <v>368036.55872</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>358376.53287</v>
+        <v>365108.05775</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>404659.55584</v>
+        <v>405118.28331</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>410708.23515</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>582689.15085</v>
+        <v>582786.08273</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>649873.4652999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>653480.37524</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1049196.339</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>111265.75819</v>
@@ -1235,31 +1176,36 @@
         <v>122322.48302</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>112222.53767</v>
+        <v>113304.78177</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>157331.36788</v>
+        <v>157595.17737</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>199657.04262</v>
+        <v>205708.66821</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>200457.67388</v>
+        <v>201162.61767</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>263279.57441</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>708771.1060599999</v>
+        <v>708811.7314599999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>676111.54729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>678384.7067999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>642854.936</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>23583699.09901</v>
@@ -1268,37 +1214,42 @@
         <v>27021718.92557</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>33206536.44122</v>
+        <v>33282371.40841</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>35533600.21184999</v>
+        <v>35644781.42336</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>38837721.81825</v>
+        <v>39175364.5876</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>46457405.61022</v>
+        <v>47094305.85606</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>52482129.61076999</v>
+        <v>54103811.67196</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>58429734.66868</v>
+        <v>58669023.70565</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>71779941.46779001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>95222109.41294999</v>
+        <v>95447000.39727001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>112932857.6705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>114653647.13587</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>128101602.266</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>19998204.16138</v>
@@ -1307,37 +1258,42 @@
         <v>23263389.84229</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>27954908.7246</v>
+        <v>28002849.78613</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>30519828.05532</v>
+        <v>30588721.28273</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>32776661.78906</v>
+        <v>33032384.32558</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>39464947.23582</v>
+        <v>39944942.10322999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>44797647.36859</v>
+        <v>46047560.00615</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>49952614.75726</v>
+        <v>50155667.35198999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>60973605.37629</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>79928388.32694</v>
+        <v>80123795.70661999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>96945109.92326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>98422665.26900001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>108247932.033</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>15755122.31645</v>
@@ -1346,76 +1302,86 @@
         <v>18238361.89081</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>21806403.9769</v>
+        <v>21825640.71137</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>24191632.96279</v>
+        <v>24220818.90611</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>26304901.45186</v>
+        <v>26445171.44568</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>31587013.36299</v>
+        <v>31969167.03798001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>35281521.63696</v>
+        <v>36284450.53042</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>39332482.97887</v>
+        <v>39519886.54985001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>47110008.78622</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>62226353.28697</v>
+        <v>62265773.11945</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>75460644.0142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>76043110.42594001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>80586053.333</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2999498.94265</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3486486.190140001</v>
+        <v>3486486.19014</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4353916.72808</v>
+        <v>4382621.055140001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4292202.11211</v>
+        <v>4331752.53651</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4370838.268680001</v>
+        <v>4437250.69383</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5390558.72879</v>
+        <v>5430551.793260001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6683794.175550001</v>
+        <v>6849395.61307</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7187900.95577</v>
+        <v>7202317.48354</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>9365557.061630001</v>
+        <v>9365557.061629999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>11916266.76043</v>
+        <v>12030458.06416</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>14076810.89289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14731448.09596</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>19154788.007</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1115764.29519</v>
@@ -1427,34 +1393,39 @@
         <v>1581362.97678</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1865143.81509</v>
+        <v>1865300.67478</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1917174.14726</v>
+        <v>1924769.77457</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2289944.87</v>
+        <v>2296654.76869</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2590826.4398</v>
+        <v>2610206.29484</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3042839.02791</v>
+        <v>3043843.61371</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4014041.21412</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5186177.054649999</v>
+        <v>5227272.106870001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6687927.72285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6927670.43607</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7744649.523</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>127818.60709</v>
@@ -1469,31 +1440,36 @@
         <v>170849.16533</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>183747.92126</v>
+        <v>225192.4115</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>197430.27404</v>
+        <v>248568.5033</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>241505.11628</v>
+        <v>303507.5678200001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>389391.79471</v>
+        <v>389619.70489</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>483998.3143199999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>599591.22489</v>
+        <v>600292.41614</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>719727.2933199999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>720436.31103</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>762441.17</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3585494.93763</v>
@@ -1502,37 +1478,42 @@
         <v>3758329.08328</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5251627.71662</v>
+        <v>5279521.62228</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5013772.156529999</v>
+        <v>5056060.14063</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6061060.029189999</v>
+        <v>6142980.26202</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6992458.374399999</v>
+        <v>7149363.75283</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7684482.24218</v>
+        <v>8056251.665809999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8477119.911420001</v>
+        <v>8513356.35366</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>10806336.0915</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>15293721.08601</v>
+        <v>15323204.69065</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>15987747.74724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16230981.86687</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>19853670.233</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2590300.45232</v>
@@ -1541,37 +1522,42 @@
         <v>2857905.97625</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3397503.41023</v>
+        <v>3421018.899440001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3777422.1856</v>
+        <v>3816705.00247</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4138473.01516</v>
+        <v>4196869.20187</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4752119.43773</v>
+        <v>4847214.74772</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5178652.42942</v>
+        <v>5418302.659709999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5943233.466659999</v>
+        <v>5972395.45474</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6897398.445640001</v>
+        <v>6897398.44564</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8675098.931560002</v>
+        <v>8705621.53166</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10379095.72576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10621242.87471</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11139465.726</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>13468.49326</v>
@@ -1586,13 +1572,13 @@
         <v>29631.84793</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>22221.6229</v>
+        <v>22643.61527</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>32442.08995</v>
+        <v>32490.21426</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>29076.31261</v>
+        <v>33723.30748</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>39870.17072</v>
@@ -1604,13 +1590,18 @@
         <v>70083.86025999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>101854.26439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>101898.76026</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>122234.297</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1118506.50575</v>
@@ -1619,37 +1610,42 @@
         <v>1262082.474</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1540387.39269</v>
+        <v>1562281.93727</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1709524.44521</v>
+        <v>1745884.71274</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1886810.47561</v>
+        <v>1934778.40232</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2183396.47916</v>
+        <v>2199682.933</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2282192.61268</v>
+        <v>2442946.64078</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2605942.62057</v>
+        <v>2623306.39913</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3141162.0464</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4051069.54334</v>
+        <v>4053181.22018</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4661733.87917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4776244.30413</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4770823.893</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1458325.45331</v>
@@ -1658,115 +1654,130 @@
         <v>1576858.47432</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1832906.15332</v>
+        <v>1834527.09795</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2038265.89246</v>
+        <v>2041188.4418</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2229440.91665</v>
+        <v>2239447.18428</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2536280.86862</v>
+        <v>2615041.60046</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2867383.50413</v>
+        <v>2941632.71145</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3297420.67537</v>
+        <v>3309218.88489</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3692300.68836</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4553945.52796</v>
+        <v>4582356.451219999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5615507.582200001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5743099.810320001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6246407.536</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>995194.4853099999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>900423.1070300001</v>
+        <v>900423.10703</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1854124.30639</v>
+        <v>1858502.72284</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1236349.97093</v>
+        <v>1239355.13816</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1922587.01403</v>
+        <v>1946111.06015</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2240338.93667</v>
+        <v>2302149.00511</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2505829.81276</v>
+        <v>2637949.0061</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2533886.44476</v>
+        <v>2540960.89892</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3908937.645860001</v>
+        <v>3908937.64586</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6618622.154450001</v>
+        <v>6617583.15899</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5608652.02148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5609738.99216</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8714204.506999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>870032.53949</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>981284.7302</v>
+        <v>981284.7301999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1169264.71968</v>
+        <v>1170154.09893</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1026111.57096</v>
+        <v>1028829.57914</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1334583.14012</v>
+        <v>1346735.76203</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1542350.45292</v>
+        <v>1564755.59078</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2756288.29579</v>
+        <v>2873190.01254</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2576044.87002</v>
+        <v>2590560.59724</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3462586.39354</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>10919178.44257</v>
+        <v>10943008.72379</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6816759.09384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6836194.791560001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12952963.407</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8830.858829999999</v>
@@ -1796,16 +1807,21 @@
         <v>25427.12727</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>46578.31976000001</v>
+        <v>46578.31976</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>70058.66636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>70058.66635999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>87618.52800000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1599.04493</v>
@@ -1826,7 +1842,7 @@
         <v>6472.89392</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5316.64229</v>
+        <v>13753.30481</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>15042.97792</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>29829.12236</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>20679.643</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>78131.51173</v>
@@ -1853,37 +1874,42 @@
         <v>64487.95602</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>74080.51772999999</v>
+        <v>74080.51773000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>87046.36409999999</v>
+        <v>87049.40677000002</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>84810.45058</v>
+        <v>85004.36564999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>105509.78475</v>
+        <v>107408.66864</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>127711.52994</v>
+        <v>133587.50315</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>149299.44319</v>
+        <v>149801.0131</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>212003.45299</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>318378.83698</v>
+        <v>320526.74218</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>377708.86192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>381559.52756</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>388333.036</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3428.67722</v>
@@ -1898,16 +1924,16 @@
         <v>5510.8909</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5273.18636</v>
+        <v>5415.84004</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>6043.42228</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>8512.503690000001</v>
+        <v>8699.607030000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5781.055139999999</v>
+        <v>6074.85222</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>14937.98523</v>
@@ -1916,13 +1942,18 @@
         <v>9821.354620000002</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>22945.50021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>30908.87881</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>40294.788</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12255.92576</v>
@@ -1931,22 +1962,22 @@
         <v>14199.56766</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>9308.6798</v>
+        <v>9308.679799999998</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>10249.08253</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>11462.32413</v>
+        <v>11471.60173</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8666.117870000002</v>
+        <v>8672.694170000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7709.85902</v>
+        <v>7791.984350000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>14746.84363</v>
+        <v>15838.01712</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11188.04565</v>
@@ -1955,13 +1986,18 @@
         <v>27194.5458</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>36214.69613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36224.65452</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>35736.525</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>24803.329</v>
@@ -1976,70 +2012,80 @@
         <v>13647.0078</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3346.24843</v>
+        <v>3448.23322</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11041.109</v>
+        <v>11053.63571</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2849.867099999999</v>
+        <v>2889.6244</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8051.27286</v>
+        <v>8057.185709999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>18526.2603</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>14154.08136</v>
+        <v>14159.46832</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>17044.22358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17071.91651</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>107001.239</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>557900.6487500001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>654882.2338500001</v>
+        <v>654882.23385</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>772702.81728</v>
+        <v>773163.3689400001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>609006.36687</v>
+        <v>610294.9929099999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>890969.12342</v>
+        <v>900276.71826</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1023804.74901</v>
+        <v>1043889.74218</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2131702.81411</v>
+        <v>2230574.54433</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1918200.23436</v>
+        <v>1930221.01051</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2666420.52836</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9638778.335290002</v>
+        <v>9658183.953910001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5316860.97321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5316350.45393</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11167119.147</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>9960.271339999999</v>
@@ -2054,7 +2100,7 @@
         <v>42910.63133999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>49527.42108</v>
+        <v>49527.42108000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>77116.48659</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>225879.35123</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>92647.22</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>122.61558</v>
@@ -2087,7 +2138,7 @@
         <v>213.44669</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>830.7049500000001</v>
+        <v>830.7049499999999</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>145.34873</v>
@@ -2099,7 +2150,7 @@
         <v>457.78052</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>48.33011999999999</v>
+        <v>97.65249</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>1229.99784</v>
@@ -2111,13 +2162,18 @@
         <v>437.17994</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>767.66985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>70.24485</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>5528.984</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>172999.65635</v>
@@ -2126,82 +2182,92 @@
         <v>190576.32541</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>221270.38322</v>
+        <v>221699.21081</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>248062.29008</v>
+        <v>249488.62955</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>255149.03684</v>
+        <v>257546.23277</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>295464.78941</v>
+        <v>295866.9472</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>359768.92838</v>
+        <v>363127.97084</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>364291.32897</v>
+        <v>364893.82671</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>426249.49185</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>678302.0369900001</v>
+        <v>680573.4074299999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>719450.02899</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>728241.9754300001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1008004.297</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>732214.6141</v>
+        <v>732214.6140999999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>803080.9319</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1285419.69954</v>
+        <v>1287053.05915</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>765933.88316</v>
+        <v>767016.4190799999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1555285.19576</v>
+        <v>1563384.13357</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1575147.75837</v>
+        <v>1604837.85501</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2639770.62967</v>
+        <v>2752807.59076</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2553489.94285</v>
+        <v>2570484.70892</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3511084.107</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11213990.42748</v>
+        <v>11225613.38639</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6138216.59468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6134709.50751</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11526306.209</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>45675.47899</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>44569.56948</v>
+        <v>44569.56948000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>57219.45359</v>
@@ -2210,34 +2276,39 @@
         <v>51821.54989</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>52286.89106999999</v>
+        <v>52286.89687</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>55121.02512000001</v>
+        <v>57584.53664</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>69737.07764</v>
+        <v>72786.54300000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>87737.97081999999</v>
+        <v>87781.77568000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>102110.56907</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>145677.21738</v>
+        <v>145679.52057</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>174825.78396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>174966.09735</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>216152.288</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>75515.19767000001</v>
+        <v>75515.19766999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>49819.40111999999</v>
@@ -2252,31 +2323,36 @@
         <v>71477.39262</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>115445.55175</v>
+        <v>117792.15901</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>98932.72457999999</v>
+        <v>99560.36293999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>119958.12755</v>
+        <v>122394.29765</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>89580.16883</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>143959.94858</v>
+        <v>146021.37144</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>113397.15651</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>113633.78163</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>455270.336</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>3144.044939999999</v>
+        <v>3144.04494</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>1547.3735</v>
@@ -2288,70 +2364,80 @@
         <v>18791.66638</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>10432.23826</v>
+        <v>10443.20721</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9289.499099999999</v>
+        <v>9297.687620000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12264.95757</v>
+        <v>12267.34612</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2048.85039</v>
+        <v>2054.89218</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>3365.78601</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>12714.49062</v>
+        <v>12715.17402</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>30341.36385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>26785.31153</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>26932.978</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>518331.63434</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>602145.3335999999</v>
+        <v>602145.3336</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>997819.3801100001</v>
+        <v>999368.7175499999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>483655.9991199999</v>
+        <v>484368.93732</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1250796.65672</v>
+        <v>1258698.38225</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1190889.05667</v>
+        <v>1214592.22512</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2245823.62216</v>
+        <v>2350797.1905</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2138340.57256</v>
+        <v>2152229.46754</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3089502.91699</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10342997.21197</v>
+        <v>10351993.93118</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5415678.18202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5414500.57238</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10456041.762</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>16943.25709</v>
@@ -2360,22 +2446,22 @@
         <v>33584.63432</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>46995.4733</v>
+        <v>46995.47330000001</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>42864.74486</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>57814.89135000001</v>
+        <v>57814.89134999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>78354.45958999998</v>
+        <v>78354.45959</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>79423.77142999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>75899.94182000001</v>
+        <v>75899.94181999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>80987.06559999999</v>
@@ -2384,13 +2470,18 @@
         <v>194396.73849</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>207804.43241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>207893.95642</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>80278.857</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>421.60087</v>
@@ -2425,89 +2516,104 @@
       <c r="M42" s="48" t="n">
         <v>61.73732</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>622.22</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>72183.40019999999</v>
+        <v>72183.4002</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>71159.8989</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>117453.22033</v>
+        <v>117537.2425</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>98359.52504000001</v>
+        <v>98729.12276</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>112401.01055</v>
+        <v>112587.24808</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>125991.04981</v>
+        <v>127159.6707</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>133580.25356</v>
+        <v>137964.15404</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>129448.45823</v>
+        <v>130068.31257</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>145499.45193</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>374228.5910600001</v>
+        <v>374790.42131</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>196107.93861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>196868.05088</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>291007.768</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>451437.8530799999</v>
+        <v>451437.85308</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>396573.95215</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>648303.6838699999</v>
+        <v>649061.1945799999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>539996.56054</v>
+        <v>541275.9947899999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>720372.15474</v>
+        <v>724003.96611</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>679650.7035299999</v>
+        <v>686796.94416</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>955407.43079</v>
+        <v>996156.68221</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1119359.35049</v>
+        <v>1122641.20543</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1398720.1869</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2651777.420140001</v>
+        <v>2654841.37334</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2319922.21896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2333333.71683</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4552989.157</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>420969.69492</v>
@@ -2516,37 +2622,42 @@
         <v>357679.87449</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>555304.01512</v>
+        <v>556061.5258300001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>518967.54302</v>
+        <v>520246.97727</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>680672.03867</v>
+        <v>684303.8500399999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>654864.9048499999</v>
+        <v>658908.51498</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>916564.6854099999</v>
+        <v>957313.9368299999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1072707.58603</v>
+        <v>1075973.82891</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1331925.55818</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2484455.81867</v>
+        <v>2487475.72045</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2195798.83348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2208963.88395</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4281364.743</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>30468.15816</v>
@@ -2555,7 +2666,7 @@
         <v>38894.07766</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>92999.66875000001</v>
+        <v>92999.66874999998</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>21029.01752</v>
@@ -2564,28 +2675,33 @@
         <v>39700.11607</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>24785.79868</v>
+        <v>27888.42918</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>38842.74537999999</v>
+        <v>38842.74538</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>46651.76446</v>
+        <v>46667.37652000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>66794.62871999999</v>
+        <v>66794.62872000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>167321.60147</v>
+        <v>167365.65289</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>124123.38548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>124369.83288</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>271624.414</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>681574.55762</v>
@@ -2594,37 +2710,42 @@
         <v>682052.9531800001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1089665.64266</v>
+        <v>1092542.56804</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>956531.09819</v>
+        <v>959892.30343</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>981512.80365</v>
+        <v>1005458.7225</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1527890.92769</v>
+        <v>1575269.79672</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1666940.04809</v>
+        <v>1762174.74567</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1437082.02144</v>
+        <v>1438395.58181</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2461719.7455</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3672032.749400001</v>
+        <v>3680137.12305</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3967272.30168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3977890.55938</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5587872.548</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>159748.49622</v>
@@ -2633,37 +2754,42 @@
         <v>165637.80603</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>187683.02584</v>
+        <v>188063.56515</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>243776.63158</v>
+        <v>244363.99095</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>238245.70269</v>
+        <v>240853.76733</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>300760.38428</v>
+        <v>305289.40042</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>357219.5686</v>
+        <v>373399.43641</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>509099.03996</v>
+        <v>510288.81253</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>692870.9855900001</v>
+        <v>692870.9855899999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>708072.0200599999</v>
+        <v>710215.9697799999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>942168.9455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>952894.0450700001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1056889.48</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4087.4613</v>
@@ -2675,16 +2801,16 @@
         <v>2090.03631</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8781.70803</v>
+        <v>8828.612369999999</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>8774.926890000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>13855.72936</v>
+        <v>13953.94112</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3232.00724</v>
+        <v>3253.71574</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>11470.97918</v>
@@ -2693,16 +2819,21 @@
         <v>3681.88572</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>34290.78618</v>
+        <v>34301.86722</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>67241.54987999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>67196.78165999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11337.753</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>155661.03492</v>
@@ -2711,37 +2842,42 @@
         <v>161997.01455</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>185592.98953</v>
+        <v>185973.52884</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>234994.92355</v>
+        <v>235535.37858</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>229470.7758</v>
+        <v>232078.84044</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>286904.65492</v>
+        <v>291335.4593</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>353987.56136</v>
+        <v>370145.72067</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>497628.06078</v>
+        <v>498817.83335</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>689189.09987</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>673781.2338799998</v>
+        <v>675914.1025599999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>874927.39562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>885697.26341</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1045551.727</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>155717.21542</v>
@@ -2750,37 +2886,42 @@
         <v>154962.31778</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1165461.72554</v>
+        <v>1166194.7847</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>332877.79235</v>
+        <v>334381.20511</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>183881.85747</v>
+        <v>186222.05818</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>633420.1970800001</v>
+        <v>639589.01298</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>226384.59501</v>
+        <v>234427.52939</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>961365.23817</v>
+        <v>961175.61638</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>408299.93212</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1035734.264</v>
+        <v>1044964.46834</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>447681.15875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>458426.1743</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>768780.613</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9363.98641</v>
@@ -2792,7 +2933,7 @@
         <v>8732.31741</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9733.59088</v>
+        <v>9733.590880000002</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>11104.96267</v>
@@ -2801,7 +2942,7 @@
         <v>9977.49907</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>16034.86381</v>
+        <v>16547.56701</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>15020.78141</v>
@@ -2810,16 +2951,21 @@
         <v>25555.41249</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>17783.05007</v>
+        <v>18047.89211</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>29999.42763</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>31304.0321</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>68072.088</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>10335.04648</v>
@@ -2834,31 +2980,36 @@
         <v>138812.04157</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10274.5548</v>
+        <v>10282.50055</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>17571.23695</v>
+        <v>17670.52947</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13176.68266</v>
+        <v>14454.90579</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>17855.09092</v>
+        <v>17854.62807</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>12160.91028</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9810.40976</v>
+        <v>9922.586649999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>36366.74513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>36734.37804</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>35455.282</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>136018.18253</v>
@@ -2867,76 +3018,86 @@
         <v>124465.17044</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1121742.88224</v>
+        <v>1122475.9414</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>184332.1599</v>
+        <v>185835.57266</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>162502.34</v>
+        <v>164834.59496</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>605871.4610599999</v>
+        <v>611940.98444</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>197173.04854</v>
+        <v>203425.05659</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>928489.3658399999</v>
+        <v>928300.2069000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>370583.60935</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1008140.80417</v>
+        <v>1016993.98958</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>381314.98599</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>390387.76416</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>665253.243</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>685605.8384199999</v>
+        <v>685605.83842</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>692728.4414300001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>111886.94296</v>
+        <v>114411.34849</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>867429.93742</v>
+        <v>869875.08927</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1035876.64887</v>
+        <v>1060090.43165</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1195231.11489</v>
+        <v>1240970.18416</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1797775.02168</v>
+        <v>1901146.65269</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>984815.82323</v>
+        <v>987508.7779600001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2746290.79897</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3344370.50546</v>
+        <v>3345388.62449</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4461760.08843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4472358.430149999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5875981.415</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>158661.92448</v>
@@ -2945,73 +3106,81 @@
         <v>166097.18141</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>245731.0304</v>
+        <v>246271.77676</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>234393.86554</v>
+        <v>235159.66817</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>262816.79239</v>
+        <v>267885.23957</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>309180.61732</v>
+        <v>315200.54443</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>373115.11222</v>
+        <v>393188.62197</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>389902.52728</v>
+        <v>390148.40437</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>483294.1940600001</v>
+        <v>483294.19406</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>829784.8773900002</v>
+        <v>835417.27504</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>805830.3918099999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>817605.0681</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1213112.196</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>526943.9139399999</v>
+        <v>526943.9139400001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>526631.2600199999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-133844.08744</v>
+        <v>-131860.42827</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>633036.0718799998</v>
+        <v>634715.4211</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>773059.8564800001</v>
+        <v>792205.1920799999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>886050.4975699999</v>
+        <v>925769.6397300001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1424659.90946</v>
+        <v>1507958.03072</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>594913.2959500001</v>
+        <v>597360.3735900001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2262996.60491</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2514585.62807</v>
+        <v>2509971.34945</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3655929.69662</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3654753.36205</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4662869.219</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>8871</v>
@@ -3038,34 +3210,37 @@
         <v>8821</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>8794</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>8720</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>8551</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>8684</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>8793</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>8714</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>8533</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>8654</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>8717</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>8959</v>
+        <v>9013</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9480</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9152</v>
+        <v>10142</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11051</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>